--- a/08.02~_data_RaceOfTime_vecVSarr/Race_vecVSarr.xlsx
+++ b/08.02~_data_RaceOfTime_vecVSarr/Race_vecVSarr.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjsuh\Intern_IsingModel\08.02~_data_RaceOfTime_vecVSarr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF0008-CF67-4406-A33A-F732F7D9B468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF37545-FCB9-472F-B251-D3CA27AF6B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29325" yWindow="960" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23970" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>vec</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,11 +46,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(mc)</t>
+    <t>(lattice size)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(lattice size)</t>
+    <t>vec/arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(effective mc)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +171,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>lattice size</a:t>
+              <a:t>effective MC</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
@@ -183,7 +217,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -202,37 +236,52 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$5</c:f>
+              <c:f>Sheet1!$G$3:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:f>Sheet1!$H$3:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>156.991725</c:v>
+                  <c:v>750.57739000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2870.135941</c:v>
+                  <c:v>1458.135802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2778.31232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,7 +289,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8A4-4A49-9556-F67A009815A5}"/>
+              <c16:uniqueId val="{00000000-9740-4510-91A7-BC55FC718B76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -249,7 +298,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -268,40 +317,52 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$5</c:f>
+              <c:f>Sheet1!$G$3:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$5</c:f>
+              <c:f>Sheet1!$I$3:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.27086399999999999</c:v>
+                  <c:v>32.493723000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9991880000000002</c:v>
+                  <c:v>62.355542999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.681345</c:v>
+                  <c:v>127.95038599999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,7 +370,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F8A4-4A49-9556-F67A009815A5}"/>
+              <c16:uniqueId val="{00000001-9740-4510-91A7-BC55FC718B76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -321,12 +382,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127662783"/>
-        <c:axId val="1489557295"/>
+        <c:axId val="1634660096"/>
+        <c:axId val="1563529904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127662783"/>
+        <c:axId val="1634660096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -369,7 +431,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1489557295"/>
+        <c:crossAx val="1563529904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -377,7 +439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1489557295"/>
+        <c:axId val="1563529904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +490,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127662783"/>
+        <c:crossAx val="1634660096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -550,7 +612,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>mc</a:t>
+              <a:t>lattice size</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
@@ -596,7 +658,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -615,43 +677,55 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$6</c:f>
+              <c:f>Sheet1!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$6</c:f>
+              <c:f>Sheet1!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1487.116896</c:v>
+                  <c:v>6.1167490000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2870.135941</c:v>
+                  <c:v>93.400503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5617.9703369999997</c:v>
+                  <c:v>1458.135802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,7 +733,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D8A-495C-801C-2C27937BB56A}"/>
+              <c16:uniqueId val="{00000000-B90A-4F17-B3CB-79BEC099A480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -668,7 +742,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -687,46 +761,58 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$6</c:f>
+              <c:f>Sheet1!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4000</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$6</c:f>
+              <c:f>Sheet1!$D$3:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5698259999999999</c:v>
+                  <c:v>0.185086</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9991880000000002</c:v>
+                  <c:v>2.613178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7001730000000004</c:v>
+                  <c:v>62.355542999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.582242000000001</c:v>
+                  <c:v>2346.3563359999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +820,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D8A-495C-801C-2C27937BB56A}"/>
+              <c16:uniqueId val="{00000001-B90A-4F17-B3CB-79BEC099A480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -746,12 +832,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1491218591"/>
-        <c:axId val="1489555375"/>
+        <c:axId val="1568141136"/>
+        <c:axId val="1637420720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1491218591"/>
+        <c:axId val="1568141136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,7 +881,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1489555375"/>
+        <c:crossAx val="1637420720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -802,7 +889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1489555375"/>
+        <c:axId val="1637420720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +940,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1491218591"/>
+        <c:crossAx val="1568141136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1021,7 +1108,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1129,11 +1216,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1144,11 +1226,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1180,9 +1257,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1537,7 +1611,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1645,11 +1719,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1660,11 +1729,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1696,9 +1760,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2056,23 +2117,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="6" name="차트 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C3CE67-590A-3F78-4D6A-201E3EF446DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC8DD4A-9289-7566-5F9E-B03EB89E8603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,23 +2153,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+        <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57BDAEE-DF6B-44E0-C510-14980697D3CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C099BE-B340-C8BE-BE1A-F9C3B891C66A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,99 +2453,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6.1167490000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.185086</v>
+      </c>
+      <c r="E3">
+        <f>C3/D3</f>
+        <v>33.048145186561925</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
+        <v>750.57739000000004</v>
+      </c>
+      <c r="I3">
+        <v>32.493723000000003</v>
+      </c>
+      <c r="J3">
+        <f>H3/I3</f>
+        <v>23.099150257420487</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>156.991725</v>
-      </c>
-      <c r="D3">
-        <v>0.27086399999999999</v>
-      </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-      <c r="G3">
-        <v>1487.116896</v>
-      </c>
-      <c r="H3">
-        <v>1.5698259999999999</v>
+      <c r="C4">
+        <v>93.400503</v>
+      </c>
+      <c r="D4">
+        <v>2.613178</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="0">C4/D4</f>
+        <v>35.742112860279704</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>1458.135802</v>
+      </c>
+      <c r="I4">
+        <v>62.355542999999997</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J5" si="1">H4/I4</f>
+        <v>23.384221062752996</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>2870.135941</v>
-      </c>
-      <c r="D4">
-        <v>2.9991880000000002</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4">
-        <v>2870.135941</v>
-      </c>
-      <c r="H4">
-        <v>2.9991880000000002</v>
+      <c r="C5">
+        <v>1458.135802</v>
+      </c>
+      <c r="D5">
+        <v>62.355542999999997</v>
+      </c>
+      <c r="E5">
+        <f>C5/D5</f>
+        <v>23.384221062752996</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>2778.31232</v>
+      </c>
+      <c r="I5">
+        <v>127.95038599999999</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>21.713981542814572</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>32</v>
       </c>
-      <c r="D5">
-        <v>40.681345</v>
-      </c>
-      <c r="F5">
-        <v>2000</v>
-      </c>
-      <c r="G5">
-        <v>5617.9703369999997</v>
-      </c>
-      <c r="H5">
-        <v>5.7001730000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F6">
-        <v>4000</v>
-      </c>
-      <c r="H6">
-        <v>10.582242000000001</v>
+      <c r="D6">
+        <v>2346.3563359999998</v>
+      </c>
+      <c r="E6">
+        <f>C6/D6</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
